--- a/biology/Botanique/Aster_lanceolatus/Aster_lanceolatus.xlsx
+++ b/biology/Botanique/Aster_lanceolatus/Aster_lanceolatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symphyotrichum lanceolatum
 L’Aster lancéolé ou Aster à feuilles lancéolées (Symphyotrichum lanceolatum) est une espèce de plante à fleurs de la famille des Asteraceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, érigée, aux feuilles lancéolées, entières ou légèrement dentées, aux fleurs en capitules avec un disque jaune entouré de ligules blanches ou bleu-violet.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante originaire d'Amérique du Nord, naturalisée partout en Europe que l'on rencontre dans les jardins, les terrains incultes et les endroits frais (lisières, bords des rivières).
 </t>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aster hesperius A. Gray
 Aster interior Wiegand
@@ -608,9 +626,11 @@
           <t>Espèce invasive</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Belgique, cette espèce est considérée comme invasive et sa plantation est interdite en Région wallonne depuis le 1er janvier 2013[1]. Elle est également inscrite sur la liste des plantes invasives en Alsace depuis 2019[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Belgique, cette espèce est considérée comme invasive et sa plantation est interdite en Région wallonne depuis le 1er janvier 2013. Elle est également inscrite sur la liste des plantes invasives en Alsace depuis 2019.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante était utilisée par les amérindiens d'Amérique du nord comme remède contre la fièvre, l'un de ses noms autochtones était "remède pour la personne qui a la fièvre[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante était utilisée par les amérindiens d'Amérique du nord comme remède contre la fièvre, l'un de ses noms autochtones était "remède pour la personne qui a la fièvre.
 </t>
         </is>
       </c>
